--- a/Answers/source_files/02_HazardAnalysisAndRiskAssessment.xlsx
+++ b/Answers/source_files/02_HazardAnalysisAndRiskAssessment.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="300">
   <si>
     <t xml:space="preserve">INSTRUCTIONS:</t>
   </si>
@@ -221,64 +221,47 @@
     <t xml:space="preserve">OS03 - Country Road </t>
   </si>
   <si>
-    <t xml:space="preserve">EN03 - Fog (degraded view) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Normal driving on a county road during fog conditions with high speed and an correctly used system.</t>
+    <t xml:space="preserve">EN01 - Normal conditions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IU02 – Incorrectly used </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Normal driving on a county road during normal conditions with high speed and an incorrectly used system.</t>
   </si>
   <si>
     <t xml:space="preserve">Lane Keeping Assistance (LKA) function shall apply the steering torque when active in order to stay in ego lane</t>
   </si>
   <si>
-    <t xml:space="preserve">DV01 - Function not activated </t>
-  </si>
-  <si>
-    <t xml:space="preserve">LKA function disengages because camera ECU does not detect lane due to camera sensor intermittently seeing lane due to fog.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The LKA could lead to vehicle collision as high steering torque could be applied as vehicle detects the lane after a long deviation from the ego center.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The LKA does not have time limitation.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Driving with fog occurs quite frequently but not daily</t>
+    <t xml:space="preserve">DV03 - Function always activated </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LKA Lane Keeping function is always activated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Driver use of the function as if the car was a self driving car and lose driving attention</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The driver does not use the function properly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E2 – Low probability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Driving on a country road and misusing the system should not happen often, likely less than 1% of the time operating the vehicle.</t>
   </si>
   <si>
     <t xml:space="preserve">C3 - Difficult to control or uncontrollable</t>
   </si>
   <si>
-    <t xml:space="preserve">At high speed, large steering outputs could lead to loss of control of the vehicle</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">The LKA </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">(Lane keeping assistance) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">function shall limit steering torque to prevent sharp vehicle movements during rapid disengagement and engagement due to lane loss.</t>
-    </r>
+    <t xml:space="preserve">At high speed, excessive steering outputs could lead to loss of control of the vehicle. Driver loses focus on controlling the vehicle.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Lane Keeping Assistance function shall be time limited, and additional steering torque shall end after a given time interval so the driver cannot misuse
+the system for autonomous driving.</t>
   </si>
   <si>
     <t xml:space="preserve">HA-003</t>
@@ -360,9 +343,6 @@
   </si>
   <si>
     <t xml:space="preserve">Driving backwards is difficult and with unexpected steering outputs from the LKA will lead to loss of control and possible hit a person</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B</t>
   </si>
   <si>
     <r>
@@ -456,9 +436,6 @@
   </si>
   <si>
     <t xml:space="preserve">OS01 - City Road</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EN01 - Normal conditions</t>
   </si>
   <si>
     <t xml:space="preserve">SD03 - Low speed</t>
@@ -1065,14 +1042,12 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -1332,11 +1307,11 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1595,8 +1570,8 @@
   </sheetPr>
   <dimension ref="A1:AB15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M3" activeCellId="0" sqref="M3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2110,34 +2085,34 @@
       </c>
       <c r="F13" s="13"/>
       <c r="G13" s="13" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="H13" s="13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I13" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J13" s="13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K13" s="13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L13" s="16" t="s">
         <v>42</v>
       </c>
       <c r="M13" s="16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N13" s="16" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="O13" s="13" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="P13" s="16" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="Q13" s="16" t="s">
         <v>47</v>
@@ -2146,16 +2121,16 @@
         <v>36</v>
       </c>
       <c r="S13" s="16" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="T13" s="16" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="U13" s="13" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="V13" s="20" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="W13" s="17"/>
       <c r="X13" s="17"/>
@@ -2166,41 +2141,41 @@
     </row>
     <row r="14" customFormat="false" ht="53.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="13" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B14" s="13" t="s">
         <v>33</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F14" s="13"/>
       <c r="G14" s="13" t="s">
         <v>37</v>
       </c>
       <c r="H14" s="13" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="I14" s="13" t="s">
         <v>39</v>
       </c>
       <c r="J14" s="13" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="K14" s="15" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="L14" s="13" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="M14" s="13" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="N14" s="16" t="s">
         <v>44</v>
@@ -2209,25 +2184,25 @@
         <v>45</v>
       </c>
       <c r="P14" s="13" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="Q14" s="21" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="R14" s="14" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="S14" s="14" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="T14" s="13" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="U14" s="13" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="V14" s="13" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="W14" s="22"/>
       <c r="X14" s="22"/>
@@ -2238,68 +2213,68 @@
     </row>
     <row r="15" customFormat="false" ht="43.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="13" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F15" s="13"/>
       <c r="G15" s="13" t="s">
         <v>37</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J15" s="13" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="K15" s="13" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="L15" s="13" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="M15" s="16" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="N15" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="O15" s="13" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="P15" s="13" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="Q15" s="13" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="R15" s="14" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="S15" s="16" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="T15" s="13" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="U15" s="13" t="s">
-        <v>92</v>
+        <v>66</v>
       </c>
       <c r="V15" s="24" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="W15" s="22"/>
       <c r="X15" s="22"/>
@@ -2398,7 +2373,7 @@
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="27"/>
       <c r="B2" s="28" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C2" s="26"/>
       <c r="D2" s="26"/>
@@ -2504,7 +2479,7 @@
         <v>13</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G5" s="12" t="s">
         <v>15</v>
@@ -2570,67 +2545,67 @@
         <v>32</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E6" s="21" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F6" s="21" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G6" s="21" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="H6" s="21" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="I6" s="21" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="J6" s="21" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K6" s="21" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="L6" s="21" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="M6" s="21" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="N6" s="21" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="O6" s="21" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="P6" s="21" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="Q6" s="21" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="R6" s="21" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="S6" s="21" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="T6" s="21" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="U6" s="21" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="V6" s="21" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="W6" s="24" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="X6" s="22"/>
       <c r="Y6" s="22"/>
@@ -2735,7 +2710,7 @@
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="26"/>
       <c r="B10" s="28" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C10" s="26"/>
       <c r="D10" s="26"/>
@@ -2801,7 +2776,7 @@
         <v>6</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
@@ -2848,7 +2823,7 @@
         <v>13</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G13" s="12" t="s">
         <v>15</v>
@@ -2916,64 +2891,64 @@
         <v>33</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>118</v>
+        <v>54</v>
       </c>
       <c r="F14" s="21" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G14" s="21" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="H14" s="21" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="I14" s="21" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="J14" s="21" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K14" s="21" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L14" s="21" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="M14" s="21" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="N14" s="21" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="O14" s="21" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="P14" s="21" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="Q14" s="21" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="R14" s="21" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="S14" s="21" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="T14" s="21" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="U14" s="21" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="V14" s="21" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="W14" s="24" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="X14" s="22"/>
       <c r="Y14" s="22"/>
@@ -2990,64 +2965,64 @@
         <v>33</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E15" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="F15" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="G15" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="H15" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="I15" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="J15" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="K15" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="L15" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="M15" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="N15" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="O15" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="P15" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q15" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="R15" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="S15" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="T15" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="U15" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="V15" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="W15" s="24" t="s">
         <v>125</v>
-      </c>
-      <c r="F15" s="21" t="s">
-        <v>119</v>
-      </c>
-      <c r="G15" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="H15" s="21" t="s">
-        <v>120</v>
-      </c>
-      <c r="I15" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="J15" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="K15" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="L15" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="M15" s="21" t="s">
-        <v>123</v>
-      </c>
-      <c r="N15" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="O15" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="P15" s="21" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q15" s="21" t="s">
-        <v>129</v>
-      </c>
-      <c r="R15" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="S15" s="21" t="s">
-        <v>111</v>
-      </c>
-      <c r="T15" s="21" t="s">
-        <v>130</v>
-      </c>
-      <c r="U15" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="V15" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="W15" s="24" t="s">
-        <v>124</v>
       </c>
       <c r="X15" s="22"/>
       <c r="Y15" s="22"/>
@@ -3058,70 +3033,70 @@
     </row>
     <row r="16" customFormat="false" ht="91.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="21" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C16" s="21" t="s">
         <v>33</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E16" s="21" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F16" s="21" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G16" s="21" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H16" s="21" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="I16" s="21" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J16" s="21" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K16" s="21" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L16" s="21" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="M16" s="21" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="N16" s="21" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O16" s="21" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="P16" s="21" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q16" s="21" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="R16" s="21" t="s">
         <v>47</v>
       </c>
       <c r="S16" s="21" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="T16" s="21" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="U16" s="21" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="V16" s="21" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="W16" s="24" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="X16" s="22"/>
       <c r="Y16" s="22"/>
@@ -3132,70 +3107,70 @@
     </row>
     <row r="17" customFormat="false" ht="57.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="21" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C17" s="21" t="s">
         <v>33</v>
       </c>
       <c r="D17" s="21" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E17" s="21" t="s">
-        <v>118</v>
+        <v>54</v>
       </c>
       <c r="F17" s="21" t="s">
         <v>36</v>
       </c>
       <c r="G17" s="21" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H17" s="21" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="I17" s="21" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="J17" s="21" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K17" s="21" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L17" s="21" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="M17" s="21" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="N17" s="21" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O17" s="21" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="P17" s="21" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="Q17" s="21" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="R17" s="21" t="s">
         <v>47</v>
       </c>
       <c r="S17" s="21" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="T17" s="21" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="U17" s="21" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="V17" s="21" t="s">
-        <v>92</v>
+        <v>66</v>
       </c>
       <c r="W17" s="24" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="X17" s="22"/>
       <c r="Y17" s="22"/>
@@ -3206,70 +3181,70 @@
     </row>
     <row r="18" customFormat="false" ht="57.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="21" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C18" s="21" t="s">
         <v>33</v>
       </c>
       <c r="D18" s="21" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E18" s="21" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F18" s="21" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G18" s="21" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H18" s="21" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="I18" s="21" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="J18" s="21" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K18" s="21" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L18" s="21" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="M18" s="21" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="N18" s="21" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O18" s="21" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="P18" s="21" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q18" s="21" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="R18" s="21" t="s">
         <v>47</v>
       </c>
       <c r="S18" s="21" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="T18" s="21" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="U18" s="21" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="V18" s="21" t="s">
-        <v>92</v>
+        <v>66</v>
       </c>
       <c r="W18" s="24" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="X18" s="22"/>
       <c r="Y18" s="22"/>
@@ -4220,7 +4195,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="25" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B1" s="26"/>
       <c r="C1" s="26"/>
@@ -4307,16 +4282,16 @@
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="34" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B4" s="35" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C4" s="35" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D4" s="35" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E4" s="26"/>
       <c r="F4" s="26"/>
@@ -4347,10 +4322,10 @@
         <v>OM01</v>
       </c>
       <c r="B5" s="37" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C5" s="37" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D5" s="38" t="str">
         <f aca="false">$A5 &amp; " - " &amp; $B5</f>
@@ -4385,10 +4360,10 @@
         <v>OM02</v>
       </c>
       <c r="B6" s="37" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C6" s="37" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D6" s="38" t="str">
         <f aca="false">$A6 &amp; " - " &amp; $B6</f>
@@ -4423,10 +4398,10 @@
         <v>OM03</v>
       </c>
       <c r="B7" s="37" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C7" s="37" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D7" s="38" t="str">
         <f aca="false">$A7 &amp; " - " &amp; $B7</f>
@@ -4461,10 +4436,10 @@
         <v>OM04</v>
       </c>
       <c r="B8" s="37" t="s">
+        <v>167</v>
+      </c>
+      <c r="C8" s="37" t="s">
         <v>166</v>
-      </c>
-      <c r="C8" s="37" t="s">
-        <v>165</v>
       </c>
       <c r="D8" s="38" t="str">
         <f aca="false">$A8 &amp; " - " &amp; $B8</f>
@@ -4499,10 +4474,10 @@
         <v>OM05</v>
       </c>
       <c r="B9" s="37" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C9" s="37" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D9" s="38" t="str">
         <f aca="false">$A9 &amp; " - " &amp; $B9</f>
@@ -4537,10 +4512,10 @@
         <v>OM06</v>
       </c>
       <c r="B10" s="37" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C10" s="37" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D10" s="38" t="str">
         <f aca="false">$A10 &amp; " - " &amp; $B10</f>
@@ -4575,10 +4550,10 @@
         <v>OM07</v>
       </c>
       <c r="B11" s="37" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C11" s="37" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D11" s="38" t="str">
         <f aca="false">$A11 &amp; " - " &amp; $B11</f>
@@ -4613,10 +4588,10 @@
         <v>OM08</v>
       </c>
       <c r="B12" s="37" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C12" s="37" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D12" s="38" t="str">
         <f aca="false">$A12 &amp; " - " &amp; $B12</f>
@@ -4651,10 +4626,10 @@
         <v>OM09</v>
       </c>
       <c r="B13" s="37" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C13" s="37" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D13" s="38" t="str">
         <f aca="false">$A13 &amp; " - " &amp; $B13</f>
@@ -4771,16 +4746,16 @@
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="34" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B17" s="35" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C17" s="35" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D17" s="35" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E17" s="26"/>
       <c r="F17" s="26"/>
@@ -4811,10 +4786,10 @@
         <v>OS01</v>
       </c>
       <c r="B18" s="37" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C18" s="37" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D18" s="38" t="str">
         <f aca="false">$A18 &amp; " - " &amp; $B18</f>
@@ -4849,10 +4824,10 @@
         <v>OS02</v>
       </c>
       <c r="B19" s="37" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C19" s="37" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D19" s="38" t="str">
         <f aca="false">$A19 &amp; " - " &amp; $B19</f>
@@ -4887,10 +4862,10 @@
         <v>OS03</v>
       </c>
       <c r="B20" s="37" t="s">
+        <v>181</v>
+      </c>
+      <c r="C20" s="37" t="s">
         <v>180</v>
-      </c>
-      <c r="C20" s="37" t="s">
-        <v>179</v>
       </c>
       <c r="D20" s="38" t="str">
         <f aca="false">$A20 &amp; " - " &amp; $B20</f>
@@ -4925,10 +4900,10 @@
         <v>OS04</v>
       </c>
       <c r="B21" s="37" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C21" s="37" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D21" s="38" t="str">
         <f aca="false">$A21 &amp; " - " &amp; $B21</f>
@@ -4963,10 +4938,10 @@
         <v>OS05</v>
       </c>
       <c r="B22" s="37" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C22" s="37" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D22" s="38" t="str">
         <f aca="false">$A22 &amp; " - " &amp; $B22</f>
@@ -5001,10 +4976,10 @@
         <v>OS06</v>
       </c>
       <c r="B23" s="37" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C23" s="37" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D23" s="38" t="str">
         <f aca="false">$A23 &amp; " - " &amp; $B23</f>
@@ -5039,10 +5014,10 @@
         <v>OS07</v>
       </c>
       <c r="B24" s="37" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C24" s="37" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D24" s="38" t="str">
         <f aca="false">$A24 &amp; " - " &amp; $B24</f>
@@ -5077,10 +5052,10 @@
         <v>OS08</v>
       </c>
       <c r="B25" s="37" t="s">
+        <v>187</v>
+      </c>
+      <c r="C25" s="37" t="s">
         <v>186</v>
-      </c>
-      <c r="C25" s="37" t="s">
-        <v>185</v>
       </c>
       <c r="D25" s="38" t="str">
         <f aca="false">$A25 &amp; " - " &amp; $B25</f>
@@ -5115,10 +5090,10 @@
         <v>OS09</v>
       </c>
       <c r="B26" s="37" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C26" s="37" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D26" s="38" t="str">
         <f aca="false">$A26 &amp; " - " &amp; $B26</f>
@@ -5153,10 +5128,10 @@
         <v>OS10</v>
       </c>
       <c r="B27" s="37" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C27" s="37" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D27" s="38" t="str">
         <f aca="false">$A27 &amp; " - " &amp; $B27</f>
@@ -5191,10 +5166,10 @@
         <v>OS11</v>
       </c>
       <c r="B28" s="37" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C28" s="37" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D28" s="38" t="str">
         <f aca="false">$A28 &amp; " - " &amp; $B28</f>
@@ -5311,16 +5286,16 @@
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="34" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B32" s="35" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C32" s="35" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D32" s="35" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E32" s="26"/>
       <c r="F32" s="26"/>
@@ -5351,10 +5326,10 @@
         <v>SD01</v>
       </c>
       <c r="B33" s="37" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C33" s="37" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D33" s="38" t="str">
         <f aca="false">$A33 &amp; " - " &amp; $B33</f>
@@ -5389,10 +5364,10 @@
         <v>SD02</v>
       </c>
       <c r="B34" s="37" t="s">
+        <v>192</v>
+      </c>
+      <c r="C34" s="37" t="s">
         <v>191</v>
-      </c>
-      <c r="C34" s="37" t="s">
-        <v>190</v>
       </c>
       <c r="D34" s="38" t="str">
         <f aca="false">$A34 &amp; " - " &amp; $B34</f>
@@ -5427,10 +5402,10 @@
         <v>SD03</v>
       </c>
       <c r="B35" s="37" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C35" s="37" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D35" s="38" t="str">
         <f aca="false">$A35 &amp; " - " &amp; $B35</f>
@@ -5465,10 +5440,10 @@
         <v>SD04</v>
       </c>
       <c r="B36" s="37" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C36" s="37" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D36" s="38" t="str">
         <f aca="false">$A36 &amp; " - " &amp; $B36</f>
@@ -5503,10 +5478,10 @@
         <v>SD05</v>
       </c>
       <c r="B37" s="37" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C37" s="37" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D37" s="38" t="str">
         <f aca="false">$A37 &amp; " - " &amp; $B37</f>
@@ -5541,10 +5516,10 @@
         <v>SD06</v>
       </c>
       <c r="B38" s="37" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C38" s="37" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D38" s="38" t="str">
         <f aca="false">$A38 &amp; " - " &amp; $B38</f>
@@ -5579,10 +5554,10 @@
         <v>SD07</v>
       </c>
       <c r="B39" s="37" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C39" s="37" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D39" s="38" t="str">
         <f aca="false">$A39 &amp; " - " &amp; $B39</f>
@@ -5669,7 +5644,7 @@
     </row>
     <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="33" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B42" s="26"/>
       <c r="C42" s="26"/>
@@ -5699,16 +5674,16 @@
     </row>
     <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="34" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B43" s="35" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C43" s="35" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D43" s="35" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E43" s="26"/>
       <c r="F43" s="26"/>
@@ -5739,10 +5714,10 @@
         <v>IU01</v>
       </c>
       <c r="B44" s="37" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C44" s="37" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D44" s="38" t="str">
         <f aca="false">$A44 &amp; " - " &amp; $B44</f>
@@ -5777,10 +5752,10 @@
         <v>IU02</v>
       </c>
       <c r="B45" s="37" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C45" s="37" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D45" s="38" t="str">
         <f aca="false">$A45 &amp; " - " &amp; $B45</f>
@@ -5815,10 +5790,10 @@
         <v>IU03</v>
       </c>
       <c r="B46" s="37" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C46" s="37" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D46" s="38" t="str">
         <f aca="false">$A46 &amp; " - " &amp; $B46</f>
@@ -5935,16 +5910,16 @@
     </row>
     <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="34" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B50" s="35" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C50" s="35" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D50" s="35" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E50" s="26"/>
       <c r="F50" s="26"/>
@@ -5975,10 +5950,10 @@
         <v>EN01</v>
       </c>
       <c r="B51" s="37" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C51" s="37" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D51" s="38" t="str">
         <f aca="false">$A51 &amp; " - " &amp; $B51</f>
@@ -6013,10 +5988,10 @@
         <v>EN02</v>
       </c>
       <c r="B52" s="37" t="s">
+        <v>204</v>
+      </c>
+      <c r="C52" s="37" t="s">
         <v>203</v>
-      </c>
-      <c r="C52" s="37" t="s">
-        <v>202</v>
       </c>
       <c r="D52" s="38" t="str">
         <f aca="false">$A52 &amp; " - " &amp; $B52</f>
@@ -6051,10 +6026,10 @@
         <v>EN03</v>
       </c>
       <c r="B53" s="37" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C53" s="37" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D53" s="38" t="str">
         <f aca="false">$A53 &amp; " - " &amp; $B53</f>
@@ -6089,10 +6064,10 @@
         <v>EN04</v>
       </c>
       <c r="B54" s="37" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C54" s="37" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D54" s="38" t="str">
         <f aca="false">$A54 &amp; " - " &amp; $B54</f>
@@ -6127,10 +6102,10 @@
         <v>EN05</v>
       </c>
       <c r="B55" s="37" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C55" s="37" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D55" s="38" t="str">
         <f aca="false">$A55 &amp; " - " &amp; $B55</f>
@@ -6165,10 +6140,10 @@
         <v>EN06</v>
       </c>
       <c r="B56" s="37" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C56" s="37" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D56" s="38" t="str">
         <f aca="false">$A56 &amp; " - " &amp; $B56</f>
@@ -6203,10 +6178,10 @@
         <v>EN07</v>
       </c>
       <c r="B57" s="37" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C57" s="37" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D57" s="38" t="str">
         <f aca="false">$A57 &amp; " - " &amp; $B57</f>
@@ -6241,10 +6216,10 @@
         <v>EN08</v>
       </c>
       <c r="B58" s="37" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C58" s="37" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D58" s="38" t="str">
         <f aca="false">$A58 &amp; " - " &amp; $B58</f>
@@ -6279,10 +6254,10 @@
         <v>EN09</v>
       </c>
       <c r="B59" s="37" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C59" s="37" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D59" s="38" t="str">
         <f aca="false">$A59 &amp; " - " &amp; $B59</f>
@@ -7334,16 +7309,16 @@
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="34" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B3" s="35" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C3" s="35" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D3" s="35" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E3" s="41"/>
       <c r="F3" s="41"/>
@@ -7374,10 +7349,10 @@
         <v>DV01</v>
       </c>
       <c r="B4" s="37" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C4" s="37" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D4" s="38" t="str">
         <f aca="false">$A4 &amp; " - " &amp; $B4</f>
@@ -7412,10 +7387,10 @@
         <v>DV02</v>
       </c>
       <c r="B5" s="37" t="s">
+        <v>213</v>
+      </c>
+      <c r="C5" s="37" t="s">
         <v>212</v>
-      </c>
-      <c r="C5" s="37" t="s">
-        <v>211</v>
       </c>
       <c r="D5" s="38" t="str">
         <f aca="false">$A5 &amp; " - " &amp; $B5</f>
@@ -7450,10 +7425,10 @@
         <v>DV03</v>
       </c>
       <c r="B6" s="37" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C6" s="37" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D6" s="38" t="str">
         <f aca="false">$A6 &amp; " - " &amp; $B6</f>
@@ -7488,10 +7463,10 @@
         <v>DV04</v>
       </c>
       <c r="B7" s="37" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C7" s="37" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D7" s="38" t="str">
         <f aca="false">$A7 &amp; " - " &amp; $B7</f>
@@ -7526,10 +7501,10 @@
         <v>DV05</v>
       </c>
       <c r="B8" s="37" t="s">
+        <v>217</v>
+      </c>
+      <c r="C8" s="37" t="s">
         <v>216</v>
-      </c>
-      <c r="C8" s="37" t="s">
-        <v>215</v>
       </c>
       <c r="D8" s="38" t="str">
         <f aca="false">$A8 &amp; " - " &amp; $B8</f>
@@ -7564,10 +7539,10 @@
         <v>DV06</v>
       </c>
       <c r="B9" s="37" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C9" s="37" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D9" s="38" t="str">
         <f aca="false">$A9 &amp; " - " &amp; $B9</f>
@@ -7602,10 +7577,10 @@
         <v>DV07</v>
       </c>
       <c r="B10" s="37" t="s">
+        <v>220</v>
+      </c>
+      <c r="C10" s="37" t="s">
         <v>219</v>
-      </c>
-      <c r="C10" s="37" t="s">
-        <v>218</v>
       </c>
       <c r="D10" s="38" t="str">
         <f aca="false">$A10 &amp; " - " &amp; $B10</f>
@@ -7640,10 +7615,10 @@
         <v>DV08</v>
       </c>
       <c r="B11" s="37" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C11" s="37" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D11" s="38" t="str">
         <f aca="false">$A11 &amp; " - " &amp; $B11</f>
@@ -7678,10 +7653,10 @@
         <v>DV09</v>
       </c>
       <c r="B12" s="37" t="s">
+        <v>223</v>
+      </c>
+      <c r="C12" s="37" t="s">
         <v>222</v>
-      </c>
-      <c r="C12" s="37" t="s">
-        <v>221</v>
       </c>
       <c r="D12" s="38" t="str">
         <f aca="false">$A12 &amp; " - " &amp; $B12</f>
@@ -7716,10 +7691,10 @@
         <v>DV10</v>
       </c>
       <c r="B13" s="37" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C13" s="37" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D13" s="38" t="str">
         <f aca="false">$A13 &amp; " - " &amp; $B13</f>
@@ -7754,10 +7729,10 @@
         <v>DV11</v>
       </c>
       <c r="B14" s="37" t="s">
+        <v>226</v>
+      </c>
+      <c r="C14" s="37" t="s">
         <v>225</v>
-      </c>
-      <c r="C14" s="37" t="s">
-        <v>224</v>
       </c>
       <c r="D14" s="38" t="str">
         <f aca="false">$A14 &amp; " - " &amp; $B14</f>
@@ -7792,10 +7767,10 @@
         <v>DV12</v>
       </c>
       <c r="B15" s="37" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C15" s="37" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D15" s="38" t="str">
         <f aca="false">$A15 &amp; " - " &amp; $B15</f>
@@ -7830,10 +7805,10 @@
         <v>DV13</v>
       </c>
       <c r="B16" s="37" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C16" s="37" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D16" s="38" t="str">
         <f aca="false">$A16 &amp; " - " &amp; $B16</f>
@@ -7868,10 +7843,10 @@
         <v>DV14</v>
       </c>
       <c r="B17" s="37" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C17" s="37" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D17" s="38" t="str">
         <f aca="false">$A17 &amp; " - " &amp; $B17</f>
@@ -7906,10 +7881,10 @@
         <v>DV15</v>
       </c>
       <c r="B18" s="37" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C18" s="37" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D18" s="38" t="str">
         <f aca="false">$A18 &amp; " - " &amp; $B18</f>
@@ -7944,10 +7919,10 @@
         <v>DV16</v>
       </c>
       <c r="B19" s="37" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C19" s="37" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D19" s="38" t="str">
         <f aca="false">$A19 &amp; " - " &amp; $B19</f>
@@ -7982,10 +7957,10 @@
         <v>DV17</v>
       </c>
       <c r="B20" s="37" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C20" s="37" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D20" s="38" t="str">
         <f aca="false">$A20 &amp; " - " &amp; $B20</f>
@@ -8020,10 +7995,10 @@
         <v>DV18</v>
       </c>
       <c r="B21" s="37" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C21" s="37" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D21" s="38" t="str">
         <f aca="false">$A21 &amp; " - " &amp; $B21</f>
@@ -8058,10 +8033,10 @@
         <v>DV19</v>
       </c>
       <c r="B22" s="37" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C22" s="37" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D22" s="38" t="str">
         <f aca="false">$A22 &amp; " - " &amp; $B22</f>
@@ -8096,10 +8071,10 @@
         <v>DV20</v>
       </c>
       <c r="B23" s="37" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C23" s="37" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D23" s="38" t="str">
         <f aca="false">$A23 &amp; " - " &amp; $B23</f>
@@ -8186,7 +8161,7 @@
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="43" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B26" s="44"/>
       <c r="C26" s="44"/>
@@ -8216,16 +8191,16 @@
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="45" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B27" s="46" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C27" s="46" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D27" s="46" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E27" s="41"/>
       <c r="F27" s="41"/>
@@ -8256,7 +8231,7 @@
         <v>EV-07</v>
       </c>
       <c r="B28" s="48" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C28" s="49"/>
       <c r="D28" s="50" t="str">
@@ -8292,7 +8267,7 @@
         <v>EV-06</v>
       </c>
       <c r="B29" s="48" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C29" s="49"/>
       <c r="D29" s="50" t="str">
@@ -8328,7 +8303,7 @@
         <v>EV-05</v>
       </c>
       <c r="B30" s="48" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C30" s="49"/>
       <c r="D30" s="50" t="str">
@@ -8364,7 +8339,7 @@
         <v>EV-04</v>
       </c>
       <c r="B31" s="48" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C31" s="49"/>
       <c r="D31" s="50" t="str">
@@ -8400,7 +8375,7 @@
         <v>EV-03</v>
       </c>
       <c r="B32" s="48" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C32" s="49"/>
       <c r="D32" s="50" t="str">
@@ -8436,7 +8411,7 @@
         <v>EV-02</v>
       </c>
       <c r="B33" s="48" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C33" s="49"/>
       <c r="D33" s="50" t="str">
@@ -8472,7 +8447,7 @@
         <v>EV-01</v>
       </c>
       <c r="B34" s="48" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C34" s="49"/>
       <c r="D34" s="50" t="str">
@@ -8508,7 +8483,7 @@
         <v>EV00</v>
       </c>
       <c r="B35" s="48" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C35" s="49"/>
       <c r="D35" s="50" t="str">
@@ -8544,7 +8519,7 @@
         <v>EV01</v>
       </c>
       <c r="B36" s="48" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C36" s="49"/>
       <c r="D36" s="50" t="str">
@@ -8580,7 +8555,7 @@
         <v>EV02</v>
       </c>
       <c r="B37" s="48" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C37" s="49"/>
       <c r="D37" s="50" t="str">
@@ -8616,7 +8591,7 @@
         <v>EV03</v>
       </c>
       <c r="B38" s="48" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C38" s="49"/>
       <c r="D38" s="50" t="str">
@@ -8652,7 +8627,7 @@
         <v>EV04</v>
       </c>
       <c r="B39" s="48" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C39" s="49"/>
       <c r="D39" s="50" t="str">
@@ -8688,7 +8663,7 @@
         <v>EV05</v>
       </c>
       <c r="B40" s="48" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C40" s="49"/>
       <c r="D40" s="50" t="str">
@@ -8724,7 +8699,7 @@
         <v>EV06</v>
       </c>
       <c r="B41" s="48" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C41" s="49"/>
       <c r="D41" s="50" t="str">
@@ -8816,7 +8791,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="33" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B1" s="26"/>
       <c r="C1" s="26"/>
@@ -8846,19 +8821,19 @@
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="34" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D2" s="35" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E2" s="35" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F2" s="26"/>
       <c r="G2" s="26"/>
@@ -8884,10 +8859,10 @@
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="53" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B3" s="37" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C3" s="37"/>
       <c r="D3" s="37"/>
@@ -8919,16 +8894,16 @@
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="53" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B4" s="37" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C4" s="37" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D4" s="37" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E4" s="38" t="str">
         <f aca="false">$A4 &amp; " - " &amp; $B4</f>
@@ -8958,16 +8933,16 @@
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="53" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B5" s="37" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C5" s="37" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D5" s="37" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E5" s="38" t="str">
         <f aca="false">$A5 &amp; " - " &amp; $B5</f>
@@ -8997,16 +8972,16 @@
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="53" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B6" s="37" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C6" s="37" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D6" s="37" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E6" s="38" t="str">
         <f aca="false">$A6 &amp; " - " &amp; $B6</f>
@@ -9036,16 +9011,16 @@
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="53" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B7" s="37" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C7" s="37" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D7" s="37" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E7" s="38" t="str">
         <f aca="false">$A7 &amp; " - " &amp; $B7</f>
@@ -9131,7 +9106,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="33" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B10" s="26"/>
       <c r="C10" s="26"/>
@@ -9161,19 +9136,19 @@
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="34" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B11" s="35" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C11" s="35" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D11" s="35" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E11" s="35" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F11" s="26"/>
       <c r="G11" s="26"/>
@@ -9199,16 +9174,16 @@
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="53" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B12" s="37" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C12" s="37" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D12" s="37" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E12" s="38" t="str">
         <f aca="false">$A12 &amp; " - " &amp; $B12</f>
@@ -9238,16 +9213,16 @@
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="53" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B13" s="37" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C13" s="37" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D13" s="37" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E13" s="38" t="str">
         <f aca="false">$A13 &amp; " - " &amp; $B13</f>
@@ -9277,16 +9252,16 @@
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="53" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B14" s="37" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C14" s="37" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D14" s="37" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E14" s="38" t="str">
         <f aca="false">$A14 &amp; " - " &amp; $B14</f>
@@ -9316,16 +9291,16 @@
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="53" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B15" s="37" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C15" s="37" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D15" s="37" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E15" s="38" t="str">
         <f aca="false">$A15 &amp; " - " &amp; $B15</f>
@@ -9411,7 +9386,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="33" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B18" s="26"/>
       <c r="C18" s="26"/>
@@ -9441,17 +9416,17 @@
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="34" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B19" s="35" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C19" s="54" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D19" s="55"/>
       <c r="E19" s="35" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F19" s="26"/>
       <c r="G19" s="26"/>
@@ -9477,13 +9452,13 @@
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="53" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B20" s="37" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C20" s="56" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D20" s="57"/>
       <c r="E20" s="38" t="str">
@@ -9514,13 +9489,13 @@
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="53" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B21" s="37" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C21" s="56" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D21" s="57"/>
       <c r="E21" s="38" t="str">
@@ -9551,13 +9526,13 @@
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="53" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B22" s="37" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C22" s="56" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D22" s="57"/>
       <c r="E22" s="38" t="str">
@@ -9588,13 +9563,13 @@
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="53" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B23" s="37" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C23" s="56" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D23" s="57"/>
       <c r="E23" s="38" t="str">
@@ -9680,13 +9655,13 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="60" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C2" s="61" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D2" s="62" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E2" s="62"/>
       <c r="F2" s="62"/>
@@ -9696,161 +9671,161 @@
       <c r="B3" s="60"/>
       <c r="C3" s="61"/>
       <c r="D3" s="49" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E3" s="49" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F3" s="49" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="G3" s="49" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="63" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C4" s="64" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D4" s="64" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E4" s="64" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F4" s="64" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="G4" s="64" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="63"/>
       <c r="C5" s="64" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D5" s="64" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E5" s="64" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F5" s="64" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="G5" s="64" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="63"/>
       <c r="C6" s="64" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D6" s="64" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E6" s="64" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F6" s="64" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="G6" s="64" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="63"/>
       <c r="C7" s="64" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D7" s="64" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E7" s="64" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F7" s="64" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G7" s="64" t="s">
-        <v>92</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="63" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C8" s="64" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D8" s="64" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E8" s="64" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F8" s="64" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="G8" s="64" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="63"/>
       <c r="C9" s="64" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D9" s="64" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E9" s="64" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F9" s="64" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="G9" s="64" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="63"/>
       <c r="C10" s="64" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D10" s="64" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E10" s="64" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F10" s="64" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G10" s="64" t="s">
-        <v>92</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="63"/>
       <c r="C11" s="64" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D11" s="64" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E11" s="64" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F11" s="64" t="s">
-        <v>92</v>
+        <v>66</v>
       </c>
       <c r="G11" s="64" t="s">
         <v>50</v>
@@ -9858,55 +9833,55 @@
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="63" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C12" s="64" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D12" s="64" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E12" s="64" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F12" s="64" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="G12" s="64" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="63"/>
       <c r="C13" s="64" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D13" s="64" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E13" s="64" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F13" s="64" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G13" s="64" t="s">
-        <v>92</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="63"/>
       <c r="C14" s="64" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D14" s="64" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E14" s="64" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F14" s="64" t="s">
-        <v>92</v>
+        <v>66</v>
       </c>
       <c r="G14" s="64" t="s">
         <v>50</v>
@@ -9915,19 +9890,19 @@
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="63"/>
       <c r="C15" s="64" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D15" s="64" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E15" s="64" t="s">
-        <v>92</v>
+        <v>66</v>
       </c>
       <c r="F15" s="64" t="s">
         <v>50</v>
       </c>
       <c r="G15" s="64" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
   </sheetData>
